--- a/physicalExcelCalculator.xlsx
+++ b/physicalExcelCalculator.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wasd\Nextcloud\Programmieren\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wasd\Nextcloud\Programmieren\Excel\physicalExcelCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2726A9-754A-42F5-BBAB-805841F7EFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8EF16B-E576-4794-98F7-03BF0EDE820F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6BA7A9C1-74EC-4BB2-891F-5324CAB4A155}"/>
+    <workbookView xWindow="-10515" yWindow="3765" windowWidth="21600" windowHeight="10635" xr2:uid="{6BA7A9C1-74EC-4BB2-891F-5324CAB4A155}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
     <sheet name="SI" sheetId="2" r:id="rId2"/>
     <sheet name="constants" sheetId="5" r:id="rId3"/>
     <sheet name="length" sheetId="3" r:id="rId4"/>
-    <sheet name="pressure" sheetId="4" r:id="rId5"/>
-    <sheet name="airHumidity" sheetId="6" r:id="rId6"/>
+    <sheet name="weight" sheetId="7" r:id="rId5"/>
+    <sheet name="pressure" sheetId="4" r:id="rId6"/>
+    <sheet name="airHumidity" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -377,6 +378,27 @@
   </si>
   <si>
     <t>J⋅K^-1⋅mol^-1</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>carat</t>
+  </si>
+  <si>
+    <t>lb (pound)</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>added weight</t>
   </si>
 </sst>
 </file>
@@ -937,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CD96C5-2559-45CC-A724-64E1FC31A7E9}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,35 +999,43 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>43939</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B9" s="23" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22"/>
+      <c r="B10" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1219,7 +1249,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1312,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D3" s="5">
-        <f>VLOOKUP(A2,H3:I27,2,FALSE)</f>
+        <f>VLOOKUP(A2,H3:I29,2,FALSE)</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E3" s="5">
@@ -1518,11 +1548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B4F263-9828-49B4-916A-28993E001738}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966989C5-D16F-4086-A3E0-7B3A5926C169}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,6 +1564,166 @@
       <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>"1 "&amp;A2&amp;" = X "&amp;I3</f>
+        <v>1 lb (pound) = X kg</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>I3&amp;" = X "&amp;B2</f>
+        <v>kg = X kg</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>D3*A3*E3</f>
+        <v>0.45359237000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <f>VLOOKUP(A2,H3:I13,2,FALSE)</f>
+        <v>0.45359237000000002</v>
+      </c>
+      <c r="E3" s="5">
+        <f>1/VLOOKUP(B2,H4:I13,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
+        <f>A3&amp;" "&amp;A2&amp;" equals "&amp;B3&amp;" "&amp;B2&amp;"."</f>
+        <v>1 lb (pound) equals 0.45359237 kg.</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.45359237000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2" xr:uid="{FE76C94F-4DED-4C9A-9595-25D6DAF3A2A7}">
+      <formula1>$H$4:$H$13</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B4F263-9828-49B4-916A-28993E001738}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D1" s="2" t="str">
         <f>A2&amp;" to "&amp;I3</f>
         <v>Torr to Pa</v>
@@ -1578,7 +1768,7 @@
         <v>1.3332200000000001</v>
       </c>
       <c r="D3" s="5">
-        <f>VLOOKUP(A2,H3:I15,2,FALSE)</f>
+        <f>VLOOKUP(A2,H3:I17,2,FALSE)</f>
         <v>133.322</v>
       </c>
       <c r="E3" s="5">
@@ -1705,11 +1895,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3BA366-A037-42CE-9610-1227A84A4C68}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
